--- a/data/bank.Top.xlsx
+++ b/data/bank.Top.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>code</t>
   </si>
@@ -50,30 +50,6 @@
   </si>
   <si>
     <t>rateofreturn</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>银行</t>
-  </si>
-  <si>
-    <t>浦发银行</t>
-  </si>
-  <si>
-    <t>江苏银行</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>北京银行</t>
-  </si>
-  <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
-    <t>民生银行</t>
   </si>
 </sst>
 </file>
@@ -422,7 +398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="B1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,279 +444,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="n">
-        <v>3059</v>
-      </c>
-      <c r="B2" t="n">
-        <v>601398</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.265151515151516</v>
-      </c>
-      <c r="F2" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.5306</v>
-      </c>
-      <c r="J2" t="n">
-        <v>54.2747</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8.849244808966758e-05</v>
-      </c>
-      <c r="L2" t="s"/>
-      <c r="M2" t="n">
-        <v>0.0278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B3" t="n">
-        <v>600000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.737864077669903</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.9334</v>
-      </c>
-      <c r="J3" t="n">
-        <v>43.2146</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.908497273541399e-05</v>
-      </c>
-      <c r="L3" t="s"/>
-      <c r="M3" t="n">
-        <v>-0.0162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="n">
-        <v>2415</v>
-      </c>
-      <c r="B4" t="n">
-        <v>600919</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.754716981132075</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.6682</v>
-      </c>
-      <c r="J4" t="n">
-        <v>41.4713</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.286566933559636e-05</v>
-      </c>
-      <c r="L4" t="s"/>
-      <c r="M4" t="n">
-        <v>-0.0646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B5" t="n">
-        <v>601288</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10.25225225225225</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.3369</v>
-      </c>
-      <c r="J5" t="n">
-        <v>47.082</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.647521721580802e-05</v>
-      </c>
-      <c r="L5" t="s"/>
-      <c r="M5" t="n">
-        <v>0.0285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="n">
-        <v>1148</v>
-      </c>
-      <c r="B6" t="n">
-        <v>601169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.06521739130435</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.8036</v>
-      </c>
-      <c r="J6" t="n">
-        <v>49.7578</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.819542562173342e-05</v>
-      </c>
-      <c r="L6" t="s"/>
-      <c r="M6" t="n">
-        <v>0.0037</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B7" t="n">
-        <v>601166</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.42574257425743</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18.9603</v>
-      </c>
-      <c r="J7" t="n">
-        <v>52.6436</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.358990081537904e-05</v>
-      </c>
-      <c r="L7" t="s"/>
-      <c r="M7" t="n">
-        <v>-0.0253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="n">
-        <v>1113</v>
-      </c>
-      <c r="B8" t="n">
-        <v>600016</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11.54255319148936</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13.5741</v>
-      </c>
-      <c r="J8" t="n">
-        <v>46.1804</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.044695893486537e-05</v>
-      </c>
-      <c r="L8" t="s"/>
-      <c r="M8" t="n">
-        <v>-0.0644</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
